--- a/data.xlsx
+++ b/data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1293"/>
+  <dimension ref="A1:S1331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11994,10 +11994,10 @@
         <v>0</v>
       </c>
       <c r="R188" t="n">
-        <v>0</v>
+        <v>892.4</v>
       </c>
       <c r="S188" t="n">
-        <v>0</v>
+        <v>-163.9999999999986</v>
       </c>
     </row>
     <row r="189">
@@ -13569,10 +13569,10 @@
         <v>0</v>
       </c>
       <c r="R213" t="n">
-        <v>931.4999999999999</v>
+        <v>0</v>
       </c>
       <c r="S213" t="n">
-        <v>617.9999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -14325,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="R225" t="n">
-        <v>848.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="S225" t="n">
         <v>0</v>
@@ -15138,16 +15138,16 @@
         <v>886.65</v>
       </c>
       <c r="P238" t="n">
-        <v>890.475</v>
+        <v>0</v>
       </c>
       <c r="Q238" t="n">
-        <v>17809.5</v>
+        <v>0</v>
       </c>
       <c r="R238" t="n">
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>-841.4999999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -15837,10 +15837,10 @@
         <v>0</v>
       </c>
       <c r="R249" t="n">
-        <v>0</v>
+        <v>952.2</v>
       </c>
       <c r="S249" t="n">
-        <v>0</v>
+        <v>-116.9999999999982</v>
       </c>
     </row>
     <row r="250">
@@ -16782,10 +16782,10 @@
         <v>0</v>
       </c>
       <c r="R264" t="n">
-        <v>923.0749999999999</v>
+        <v>0</v>
       </c>
       <c r="S264" t="n">
-        <v>-699.5000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -17475,7 +17475,7 @@
         <v>0</v>
       </c>
       <c r="R275" t="n">
-        <v>890.95</v>
+        <v>0</v>
       </c>
       <c r="S275" t="n">
         <v>0</v>
@@ -17784,16 +17784,16 @@
         <v>899.275</v>
       </c>
       <c r="P280" t="n">
-        <v>926.775</v>
+        <v>0</v>
       </c>
       <c r="Q280" t="n">
-        <v>18535.5</v>
+        <v>0</v>
       </c>
       <c r="R280" t="n">
         <v>0</v>
       </c>
       <c r="S280" t="n">
-        <v>-716.4999999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -19296,10 +19296,10 @@
         <v>891.3</v>
       </c>
       <c r="P304" t="n">
-        <v>957.4</v>
+        <v>0</v>
       </c>
       <c r="Q304" t="n">
-        <v>19148</v>
+        <v>0</v>
       </c>
       <c r="R304" t="n">
         <v>0</v>
@@ -19617,10 +19617,10 @@
         <v>0</v>
       </c>
       <c r="R309" t="n">
-        <v>937.925</v>
+        <v>0</v>
       </c>
       <c r="S309" t="n">
-        <v>-389.5000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -20247,7 +20247,7 @@
         <v>0</v>
       </c>
       <c r="R319" t="n">
-        <v>905.0500000000001</v>
+        <v>0</v>
       </c>
       <c r="S319" t="n">
         <v>0</v>
@@ -20367,16 +20367,16 @@
         <v>926.675</v>
       </c>
       <c r="P321" t="n">
-        <v>919.65</v>
+        <v>0</v>
       </c>
       <c r="Q321" t="n">
-        <v>18393</v>
+        <v>0</v>
       </c>
       <c r="R321" t="n">
         <v>0</v>
       </c>
       <c r="S321" t="n">
-        <v>-291.9999999999982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -21501,16 +21501,16 @@
         <v>926.15</v>
       </c>
       <c r="P339" t="n">
-        <v>0</v>
+        <v>834.8</v>
       </c>
       <c r="Q339" t="n">
-        <v>0</v>
+        <v>16696</v>
       </c>
       <c r="R339" t="n">
         <v>0</v>
       </c>
       <c r="S339" t="n">
-        <v>0</v>
+        <v>639.0000000000009</v>
       </c>
     </row>
     <row r="340">
@@ -22194,16 +22194,16 @@
         <v>919.55</v>
       </c>
       <c r="P350" t="n">
-        <v>874.9</v>
+        <v>0</v>
       </c>
       <c r="Q350" t="n">
-        <v>17498</v>
+        <v>0</v>
       </c>
       <c r="R350" t="n">
         <v>0</v>
       </c>
       <c r="S350" t="n">
-        <v>-162.9999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -23145,10 +23145,10 @@
         <v>18750</v>
       </c>
       <c r="R365" t="n">
-        <v>0</v>
+        <v>914.8</v>
       </c>
       <c r="S365" t="n">
-        <v>0</v>
+        <v>-454.0000000000009</v>
       </c>
     </row>
     <row r="366">
@@ -26673,10 +26673,10 @@
         <v>0</v>
       </c>
       <c r="R421" t="n">
-        <v>1085.725</v>
+        <v>0</v>
       </c>
       <c r="S421" t="n">
-        <v>2964.500000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -33471,16 +33471,16 @@
         <v>1200.75</v>
       </c>
       <c r="P529" t="n">
-        <v>0</v>
+        <v>1073.35</v>
       </c>
       <c r="Q529" t="n">
-        <v>0</v>
+        <v>21467</v>
       </c>
       <c r="R529" t="n">
         <v>0</v>
       </c>
       <c r="S529" t="n">
-        <v>0</v>
+        <v>132.0000000000027</v>
       </c>
     </row>
     <row r="530">
@@ -34920,16 +34920,16 @@
         <v>1151</v>
       </c>
       <c r="P552" t="n">
-        <v>1076.925</v>
+        <v>0</v>
       </c>
       <c r="Q552" t="n">
-        <v>21538.5</v>
+        <v>0</v>
       </c>
       <c r="R552" t="n">
         <v>0</v>
       </c>
       <c r="S552" t="n">
-        <v>60.50000000000182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -35424,10 +35424,10 @@
         <v>1141.15</v>
       </c>
       <c r="P560" t="n">
-        <v>1155.05</v>
+        <v>0</v>
       </c>
       <c r="Q560" t="n">
-        <v>23101</v>
+        <v>0</v>
       </c>
       <c r="R560" t="n">
         <v>0</v>
@@ -37761,10 +37761,10 @@
         <v>0</v>
       </c>
       <c r="R597" t="n">
-        <v>1299.35</v>
+        <v>0</v>
       </c>
       <c r="S597" t="n">
-        <v>2885.999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -48843,16 +48843,16 @@
         <v>1699.025</v>
       </c>
       <c r="P773" t="n">
-        <v>0</v>
+        <v>1631.9</v>
       </c>
       <c r="Q773" t="n">
-        <v>0</v>
+        <v>32638</v>
       </c>
       <c r="R773" t="n">
         <v>0</v>
       </c>
       <c r="S773" t="n">
-        <v>0</v>
+        <v>-277.0000000000027</v>
       </c>
     </row>
     <row r="774">
@@ -48969,16 +48969,16 @@
         <v>1699.15</v>
       </c>
       <c r="P775" t="n">
-        <v>1659.525</v>
+        <v>0</v>
       </c>
       <c r="Q775" t="n">
-        <v>33190.5</v>
+        <v>0</v>
       </c>
       <c r="R775" t="n">
         <v>0</v>
       </c>
       <c r="S775" t="n">
-        <v>-829.5000000000027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776">
@@ -52251,10 +52251,10 @@
         <v>0</v>
       </c>
       <c r="R827" t="n">
-        <v>1717.85</v>
+        <v>1713</v>
       </c>
       <c r="S827" t="n">
-        <v>-684.0000000000009</v>
+        <v>-780.9999999999991</v>
       </c>
     </row>
     <row r="828">
@@ -53064,16 +53064,16 @@
         <v>1672.25</v>
       </c>
       <c r="P840" t="n">
-        <v>0</v>
+        <v>1643.5</v>
       </c>
       <c r="Q840" t="n">
-        <v>0</v>
+        <v>32870</v>
       </c>
       <c r="R840" t="n">
         <v>0</v>
       </c>
       <c r="S840" t="n">
-        <v>0</v>
+        <v>-159.0000000000009</v>
       </c>
     </row>
     <row r="841">
@@ -53190,16 +53190,16 @@
         <v>1672.25</v>
       </c>
       <c r="P842" t="n">
-        <v>1702.1</v>
+        <v>0</v>
       </c>
       <c r="Q842" t="n">
-        <v>34042</v>
+        <v>0</v>
       </c>
       <c r="R842" t="n">
         <v>0</v>
       </c>
       <c r="S842" t="n">
-        <v>-1330.999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843">
@@ -53946,10 +53946,10 @@
         <v>1717.95</v>
       </c>
       <c r="P854" t="n">
-        <v>1751.05</v>
+        <v>0</v>
       </c>
       <c r="Q854" t="n">
-        <v>35021</v>
+        <v>0</v>
       </c>
       <c r="R854" t="n">
         <v>0</v>
@@ -54198,10 +54198,10 @@
         <v>1717.95</v>
       </c>
       <c r="P858" t="n">
-        <v>0</v>
+        <v>1753.4</v>
       </c>
       <c r="Q858" t="n">
-        <v>0</v>
+        <v>35068</v>
       </c>
       <c r="R858" t="n">
         <v>0</v>
@@ -55275,10 +55275,10 @@
         <v>0</v>
       </c>
       <c r="R875" t="n">
-        <v>0</v>
+        <v>1843.6</v>
       </c>
       <c r="S875" t="n">
-        <v>0</v>
+        <v>1804.000000000001</v>
       </c>
     </row>
     <row r="876">
@@ -56094,10 +56094,10 @@
         <v>0</v>
       </c>
       <c r="R888" t="n">
-        <v>1845.25</v>
+        <v>0</v>
       </c>
       <c r="S888" t="n">
-        <v>1884.000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889">
@@ -59433,7 +59433,7 @@
         <v>0</v>
       </c>
       <c r="R941" t="n">
-        <v>1880.95</v>
+        <v>0</v>
       </c>
       <c r="S941" t="n">
         <v>0</v>
@@ -59490,16 +59490,16 @@
         <v>1898.05</v>
       </c>
       <c r="P942" t="n">
-        <v>1936.35</v>
+        <v>0</v>
       </c>
       <c r="Q942" t="n">
-        <v>38727</v>
+        <v>0</v>
       </c>
       <c r="R942" t="n">
         <v>0</v>
       </c>
       <c r="S942" t="n">
-        <v>-1107.999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943">
@@ -66804,7 +66804,7 @@
         <v>0</v>
       </c>
       <c r="R1058" t="n">
-        <v>1508.25</v>
+        <v>0</v>
       </c>
       <c r="S1058" t="n">
         <v>0</v>
@@ -67617,16 +67617,16 @@
         <v>1514.55</v>
       </c>
       <c r="P1071" t="n">
-        <v>1520.225</v>
+        <v>0</v>
       </c>
       <c r="Q1071" t="n">
-        <v>30404.5</v>
+        <v>0</v>
       </c>
       <c r="R1071" t="n">
         <v>0</v>
       </c>
       <c r="S1071" t="n">
-        <v>-239.4999999999982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072">
@@ -68562,16 +68562,16 @@
         <v>1558.55</v>
       </c>
       <c r="P1086" t="n">
-        <v>1493.8</v>
+        <v>0</v>
       </c>
       <c r="Q1086" t="n">
-        <v>29876</v>
+        <v>0</v>
       </c>
       <c r="R1086" t="n">
         <v>1469.3</v>
       </c>
       <c r="S1086" t="n">
-        <v>-490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087">
@@ -68688,16 +68688,16 @@
         <v>1558.55</v>
       </c>
       <c r="P1088" t="n">
-        <v>0</v>
+        <v>1491.2</v>
       </c>
       <c r="Q1088" t="n">
-        <v>0</v>
+        <v>29824</v>
       </c>
       <c r="R1088" t="n">
         <v>0</v>
       </c>
       <c r="S1088" t="n">
-        <v>0</v>
+        <v>-438.0000000000018</v>
       </c>
     </row>
     <row r="1089">
@@ -69702,10 +69702,10 @@
         <v>0</v>
       </c>
       <c r="R1104" t="n">
-        <v>0</v>
+        <v>1713.4</v>
       </c>
       <c r="S1104" t="n">
-        <v>0</v>
+        <v>2567.000000000003</v>
       </c>
     </row>
     <row r="1105">
@@ -70962,10 +70962,10 @@
         <v>0</v>
       </c>
       <c r="R1124" t="n">
-        <v>1701.05</v>
+        <v>0</v>
       </c>
       <c r="S1124" t="n">
-        <v>2320.000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125">
@@ -71403,7 +71403,7 @@
         <v>0</v>
       </c>
       <c r="R1131" t="n">
-        <v>1551.45</v>
+        <v>0</v>
       </c>
       <c r="S1131" t="n">
         <v>0</v>
@@ -72279,16 +72279,16 @@
         <v>1632.325</v>
       </c>
       <c r="P1145" t="n">
-        <v>1586.025</v>
+        <v>0</v>
       </c>
       <c r="Q1145" t="n">
-        <v>31720.5</v>
+        <v>0</v>
       </c>
       <c r="R1145" t="n">
         <v>0</v>
       </c>
       <c r="S1145" t="n">
-        <v>-691.4999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146">
@@ -73539,16 +73539,16 @@
         <v>1591.25</v>
       </c>
       <c r="P1165" t="n">
-        <v>0</v>
+        <v>1448.65</v>
       </c>
       <c r="Q1165" t="n">
-        <v>0</v>
+        <v>28973</v>
       </c>
       <c r="R1165" t="n">
         <v>0</v>
       </c>
       <c r="S1165" t="n">
-        <v>0</v>
+        <v>-2012.000000000003</v>
       </c>
     </row>
     <row r="1166">
@@ -74106,16 +74106,16 @@
         <v>1591.25</v>
       </c>
       <c r="P1174" t="n">
-        <v>1510.575</v>
+        <v>0</v>
       </c>
       <c r="Q1174" t="n">
-        <v>30211.5</v>
+        <v>0</v>
       </c>
       <c r="R1174" t="n">
         <v>0</v>
       </c>
       <c r="S1174" t="n">
-        <v>-3250.499999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175">
@@ -75177,16 +75177,16 @@
         <v>1585.875</v>
       </c>
       <c r="P1191" t="n">
-        <v>0</v>
+        <v>1432.3</v>
       </c>
       <c r="Q1191" t="n">
-        <v>0</v>
+        <v>28646</v>
       </c>
       <c r="R1191" t="n">
         <v>0</v>
       </c>
       <c r="S1191" t="n">
-        <v>0</v>
+        <v>-646.9999999999982</v>
       </c>
     </row>
     <row r="1192">
@@ -75240,16 +75240,16 @@
         <v>1585.875</v>
       </c>
       <c r="P1192" t="n">
-        <v>1440.175</v>
+        <v>0</v>
       </c>
       <c r="Q1192" t="n">
-        <v>28803.5</v>
+        <v>0</v>
       </c>
       <c r="R1192" t="n">
         <v>0</v>
       </c>
       <c r="S1192" t="n">
-        <v>-804.4999999999982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193">
@@ -77634,10 +77634,10 @@
         <v>1473.35</v>
       </c>
       <c r="P1230" t="n">
-        <v>1548.2</v>
+        <v>0</v>
       </c>
       <c r="Q1230" t="n">
-        <v>30964</v>
+        <v>0</v>
       </c>
       <c r="R1230" t="n">
         <v>0</v>
@@ -77766,10 +77766,10 @@
         <v>0</v>
       </c>
       <c r="R1232" t="n">
-        <v>1410.9</v>
+        <v>0</v>
       </c>
       <c r="S1232" t="n">
-        <v>-2745.999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233">
@@ -79461,10 +79461,10 @@
         <v>1371.4</v>
       </c>
       <c r="P1259" t="n">
-        <v>1454</v>
+        <v>0</v>
       </c>
       <c r="Q1259" t="n">
-        <v>29080</v>
+        <v>0</v>
       </c>
       <c r="R1259" t="n">
         <v>0</v>
@@ -80664,10 +80664,10 @@
         <v>0</v>
       </c>
       <c r="R1278" t="n">
-        <v>1453.175</v>
+        <v>0</v>
       </c>
       <c r="S1278" t="n">
-        <v>-16.49999999999636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279">
@@ -81612,6 +81612,2400 @@
         <v>0</v>
       </c>
       <c r="S1293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1294" t="n">
+        <v>1510</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>1512</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>1523.95</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>1480.8</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>1486.95</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>1484.3</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>1494.31</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>1515.35</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>1496.35</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>1484.3</v>
+      </c>
+      <c r="N1294" t="n">
+        <v>1412.2</v>
+      </c>
+      <c r="O1294" t="n">
+        <v>1371.4</v>
+      </c>
+      <c r="P1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>43832</v>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1295" t="n">
+        <v>1484.3</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>1491.75</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>1534.3</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>1486.1</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>1533</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>1529</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>1508.49</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>1515.925</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>1496.35</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>1529</v>
+      </c>
+      <c r="N1295" t="n">
+        <v>1420.15</v>
+      </c>
+      <c r="O1295" t="n">
+        <v>1371.4</v>
+      </c>
+      <c r="P1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>43833</v>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1296" t="n">
+        <v>1529</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>1524</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>1538</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>1512.1</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>1529</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>1528.85</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>1522.15</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>1515.925</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>1496.35</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>1528.85</v>
+      </c>
+      <c r="N1296" t="n">
+        <v>1442.8</v>
+      </c>
+      <c r="O1296" t="n">
+        <v>1381.925</v>
+      </c>
+      <c r="P1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>43836</v>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1297" t="n">
+        <v>1528.85</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>1515.05</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>1517.75</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>1465.45</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>1470.9</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>1469.4</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>1490.4</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>1508.975</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>1496.35</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>1469.4</v>
+      </c>
+      <c r="N1297" t="n">
+        <v>1449.4625</v>
+      </c>
+      <c r="O1297" t="n">
+        <v>1384.825</v>
+      </c>
+      <c r="P1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>43837</v>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1298" t="n">
+        <v>1469.4</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>1488.45</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>1508</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>1442.2</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>1458</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>1461.65</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>1472.17</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>1497.35</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>1496.35</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>1461.65</v>
+      </c>
+      <c r="N1298" t="n">
+        <v>1463.8</v>
+      </c>
+      <c r="O1298" t="n">
+        <v>1392.3</v>
+      </c>
+      <c r="P1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>43838</v>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1299" t="n">
+        <v>1461.65</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>1441</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>1481.6</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>1439.05</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>1461.75</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>1458.6</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>1458.12</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>1495.775</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>1488.075</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>1458.6</v>
+      </c>
+      <c r="N1299" t="n">
+        <v>1473.5625</v>
+      </c>
+      <c r="O1299" t="n">
+        <v>1392.3</v>
+      </c>
+      <c r="P1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>43839</v>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1300" t="n">
+        <v>1458.6</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>1490</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>1515.95</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>1483.2</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>1507.75</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>1507.65</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>1502.64</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>1495.775</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>1475.075</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>1507.65</v>
+      </c>
+      <c r="N1300" t="n">
+        <v>1473.5625</v>
+      </c>
+      <c r="O1300" t="n">
+        <v>1392.3</v>
+      </c>
+      <c r="P1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>43840</v>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1301" t="n">
+        <v>1507.65</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>1510.85</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>1521.65</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>1484.2</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>1490</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>1491.25</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>1501.9</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>1488.525</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>1474.325</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>1491.25</v>
+      </c>
+      <c r="N1301" t="n">
+        <v>1480.4125</v>
+      </c>
+      <c r="O1301" t="n">
+        <v>1392.3</v>
+      </c>
+      <c r="P1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2" t="n">
+        <v>43843</v>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1302" t="n">
+        <v>1491.25</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>1499.8</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>1547</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>1487.35</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>1546</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>1539.65</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>1512.03</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>1493.025</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>1474.325</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>1539.65</v>
+      </c>
+      <c r="N1302" t="n">
+        <v>1484.775</v>
+      </c>
+      <c r="O1302" t="n">
+        <v>1392.3</v>
+      </c>
+      <c r="P1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2" t="n">
+        <v>43844</v>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1303" t="n">
+        <v>1539.65</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>1546</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>1585</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>1470.25</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>1478.2</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>1481.65</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>1527.76</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>1512.025</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>1490.575</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>1481.65</v>
+      </c>
+      <c r="N1303" t="n">
+        <v>1487.1125</v>
+      </c>
+      <c r="O1303" t="n">
+        <v>1392.3</v>
+      </c>
+      <c r="P1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="2" t="n">
+        <v>43845</v>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1304" t="n">
+        <v>1481.65</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>1463.4</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>1463.4</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>1391.35</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>1399</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>1400.5</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>1416.67</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>1488.175</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>1488.175</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>1400.5</v>
+      </c>
+      <c r="N1304" t="n">
+        <v>1477.925</v>
+      </c>
+      <c r="O1304" t="n">
+        <v>1392.3</v>
+      </c>
+      <c r="P1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2" t="n">
+        <v>43846</v>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1305" t="n">
+        <v>1400.5</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>1405</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>1415</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>1377.1</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>1383.8</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>1386.45</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>1391.25</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>1481.05</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>1481.05</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>1386.45</v>
+      </c>
+      <c r="N1305" t="n">
+        <v>1474.8125</v>
+      </c>
+      <c r="O1305" t="n">
+        <v>1392.3</v>
+      </c>
+      <c r="P1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2" t="n">
+        <v>43847</v>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1306" t="n">
+        <v>1386.45</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>1377</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>1317.05</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>1350.5</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>1352.25</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>1351.92</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>1451.025</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>1451.025</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>1352.25</v>
+      </c>
+      <c r="N1306" t="n">
+        <v>1474.8125</v>
+      </c>
+      <c r="O1306" t="n">
+        <v>1392.3</v>
+      </c>
+      <c r="P1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2" t="n">
+        <v>43850</v>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1307" t="n">
+        <v>1352.25</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>1367.9</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>1367.9</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>1323</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>1333</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>1331.95</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>1340.65</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>1451.025</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>1451.025</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>1331.95</v>
+      </c>
+      <c r="N1307" t="n">
+        <v>1479.6</v>
+      </c>
+      <c r="O1307" t="n">
+        <v>1392.3</v>
+      </c>
+      <c r="P1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2" t="n">
+        <v>43851</v>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1308" t="n">
+        <v>1331.95</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>1332</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>1320</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>1334.05</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>1336.35</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>1338.01</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>1451.025</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>1451.025</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>1336.35</v>
+      </c>
+      <c r="N1308" t="n">
+        <v>1473.1</v>
+      </c>
+      <c r="O1308" t="n">
+        <v>1392.3</v>
+      </c>
+      <c r="P1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2" t="n">
+        <v>43852</v>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1309" t="n">
+        <v>1336.35</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>1346.35</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>1348</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>1323</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>1326.05</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>1327.4</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>1333.69</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>1451.025</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>1451.025</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>1327.4</v>
+      </c>
+      <c r="N1309" t="n">
+        <v>1471.825</v>
+      </c>
+      <c r="O1309" t="n">
+        <v>1392.3</v>
+      </c>
+      <c r="P1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2" t="n">
+        <v>43853</v>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1310" t="n">
+        <v>1327.4</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>1330</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>1339.8</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>1320.1</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>1330.2</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>1331.8</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>1329.92</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>1451.025</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>1451.025</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>1331.8</v>
+      </c>
+      <c r="N1310" t="n">
+        <v>1464.2625</v>
+      </c>
+      <c r="O1310" t="n">
+        <v>1393.95</v>
+      </c>
+      <c r="P1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2" t="n">
+        <v>43854</v>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1311" t="n">
+        <v>1331.8</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>1334</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>1345</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>1307.65</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>1317.7</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>1316.1</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>1330.89</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>1446.325</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>1446.325</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>1316.1</v>
+      </c>
+      <c r="N1311" t="n">
+        <v>1461.725</v>
+      </c>
+      <c r="O1311" t="n">
+        <v>1393.95</v>
+      </c>
+      <c r="P1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>43857</v>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1312" t="n">
+        <v>1316.1</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>1311.5</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>1312</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>1265</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>1275</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>1271.2</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>1288.38</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>1364.2</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>1425</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>1271.2</v>
+      </c>
+      <c r="N1312" t="n">
+        <v>1461.725</v>
+      </c>
+      <c r="O1312" t="n">
+        <v>1393.95</v>
+      </c>
+      <c r="P1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>43858</v>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1313" t="n">
+        <v>1271.2</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>1281</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>1284.9</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>1240.25</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>1258</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>1254.75</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>1265.29</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>1327.625</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>1412.625</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>1254.75</v>
+      </c>
+      <c r="N1313" t="n">
+        <v>1465.175</v>
+      </c>
+      <c r="O1313" t="n">
+        <v>1393.95</v>
+      </c>
+      <c r="P1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>43859</v>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1314" t="n">
+        <v>1254.75</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>1268.9</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>1276.7</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>1251</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>1256.55</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>1258.25</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>1263.79</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>1308.625</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>1412.625</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>1258.25</v>
+      </c>
+      <c r="N1314" t="n">
+        <v>1481.075</v>
+      </c>
+      <c r="O1314" t="n">
+        <v>1393.95</v>
+      </c>
+      <c r="P1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>43860</v>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1315" t="n">
+        <v>1258.25</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>1252</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>1254</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>1221.55</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>1231.6</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>1231.5</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>1238.24</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>1294.725</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>1403.275</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>1231.5</v>
+      </c>
+      <c r="N1315" t="n">
+        <v>1493.6125</v>
+      </c>
+      <c r="O1315" t="n">
+        <v>1393.95</v>
+      </c>
+      <c r="P1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1316" t="n">
+        <v>1231.5</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>1245</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>1271.6</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>1242.1</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>1255</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>1258.85</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>1259.62</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>1285.775</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>1403.275</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>1258.85</v>
+      </c>
+      <c r="N1316" t="n">
+        <v>1502.725</v>
+      </c>
+      <c r="O1316" t="n">
+        <v>1412.225</v>
+      </c>
+      <c r="P1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1317" t="n">
+        <v>1258.85</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>1249.95</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>1262.75</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>1195.2</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>1213</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>1211.1</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>1237.23</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>1271.6</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>1390.1</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>1211.1</v>
+      </c>
+      <c r="N1317" t="n">
+        <v>1505.85</v>
+      </c>
+      <c r="O1317" t="n">
+        <v>1416.275</v>
+      </c>
+      <c r="P1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="n">
+        <v>43864</v>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1318" t="n">
+        <v>1211.1</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>1222</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>1268.45</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>1216.05</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>1264.7</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>1263.1</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>1245.03</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>1270.1</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>1390.1</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>1263.1</v>
+      </c>
+      <c r="N1318" t="n">
+        <v>1505.85</v>
+      </c>
+      <c r="O1318" t="n">
+        <v>1428.325</v>
+      </c>
+      <c r="P1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="n">
+        <v>43865</v>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1319" t="n">
+        <v>1263.1</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>1273</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>1284</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>1256.25</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>1273.15</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>1272.65</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>1271.55</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>1270.1</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>1390.1</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>1272.65</v>
+      </c>
+      <c r="N1319" t="n">
+        <v>1505.85</v>
+      </c>
+      <c r="O1319" t="n">
+        <v>1428.325</v>
+      </c>
+      <c r="P1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="n">
+        <v>43866</v>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1320" t="n">
+        <v>1272.65</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>1280</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>1288.65</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>1265.2</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>1273.4</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>1272.8</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>1277.83</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>1253.6</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>1390.1</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>1272.8</v>
+      </c>
+      <c r="N1320" t="n">
+        <v>1506.1375</v>
+      </c>
+      <c r="O1320" t="n">
+        <v>1428.325</v>
+      </c>
+      <c r="P1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>43867</v>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1321" t="n">
+        <v>1272.8</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>1280</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>1339.4</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>1262.4</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>1331</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>1334.25</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>1305.96</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>1267.3</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>1390.1</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>1334.25</v>
+      </c>
+      <c r="N1321" t="n">
+        <v>1506.1375</v>
+      </c>
+      <c r="O1321" t="n">
+        <v>1428.325</v>
+      </c>
+      <c r="P1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>43868</v>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1322" t="n">
+        <v>1334.25</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>1345</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>1346.05</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>1294.75</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>1298</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>1298.8</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>1312.06</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>1270.625</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>1390.1</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>1298.8</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>1502.6625</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>1428.325</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>43871</v>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1323" t="n">
+        <v>1298.8</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>1304</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>1304</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>1268.5</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>1275</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>1274.95</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>1277.13</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>1270.625</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>1390.1</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>1274.95</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>1496.85</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>1428.325</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>43872</v>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1324" t="n">
+        <v>1274.95</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>1290</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>1309.9</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>1285.05</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>1290.3</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>1292.65</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>1296.3</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>1270.625</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>1390.1</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>1292.65</v>
+      </c>
+      <c r="N1324" t="n">
+        <v>1491.925</v>
+      </c>
+      <c r="O1324" t="n">
+        <v>1428.325</v>
+      </c>
+      <c r="P1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>43873</v>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1325" t="n">
+        <v>1292.65</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>1260</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>1302.9</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>1251.7</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>1277</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>1277.4</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>1277.49</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>1270.625</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>1390.1</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>1277.4</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>1485.425</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>1430.35</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>43874</v>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1326" t="n">
+        <v>1277.4</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>1281.75</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>1281.75</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>1225.25</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>1231.85</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>1230.75</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>1245.92</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>1281.05</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>1390.1</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>1230.75</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>1481.425</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>1430.35</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>43875</v>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1327" t="n">
+        <v>1230.75</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>1233.9</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>1241.1</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>1171.2</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>1185</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>1176</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>1200.96</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>1258.625</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>1378.1</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>1176</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>1483.675</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>1439.475</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>43878</v>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1328" t="n">
+        <v>1176</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>1176</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>1209</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>1164.5</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>1173.65</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>1172.95</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>1183.99</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>1255.275</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>1374.75</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>1172.95</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>1501.3</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>1443.275</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>43879</v>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1329" t="n">
+        <v>1172.95</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>1172.7</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>1172.7</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>1108.45</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>1138.15</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>1140.7</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>1129.76</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>1227.25</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>1285.925</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>1140.7</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>1488.175</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>1453.275</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>43880</v>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1330" t="n">
+        <v>1140.7</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>1155</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>1168</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>1116</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>1139</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>1142.15</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>1138.38</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>1227.25</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>1261.725</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>1142.15</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>1481.05</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>1453.275</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>43881</v>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>EQ</t>
+        </is>
+      </c>
+      <c r="D1331" t="n">
+        <v>1142.15</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>1145.05</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>1203.85</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>1145.05</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>1180.95</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>1182.2</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>1182.62</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>1209.175</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>1242.725</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>1182.2</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>1451.025</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>1453.275</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1331" t="n">
         <v>0</v>
       </c>
     </row>
